--- a/Exhibits/Create Exhibit Setup/Main.rvl.xlsx
+++ b/Exhibits/Create Exhibit Setup/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="133">
   <si>
     <t>Flow</t>
   </si>
@@ -358,6 +358,60 @@
   </si>
   <si>
     <t>Exhibit Name</t>
+  </si>
+  <si>
+    <t>DoLoadObjects</t>
+  </si>
+  <si>
+    <t>objectsFilePath</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Objects.js</t>
+  </si>
+  <si>
+    <t>***Test creates the Event Meeting Setup "TUXr Meeting."</t>
+  </si>
+  <si>
+    <t>****Test first searches for the Event Meeting Setup to see if it already exists.</t>
+  </si>
+  <si>
+    <t>*****If it already exists, the Event Meeting Setup is not created.</t>
+  </si>
+  <si>
+    <t>******If it doesn't exist, the test creates the Event Meeting Setup.</t>
+  </si>
+  <si>
+    <t>*******TUXr Event must already be created before running this test.</t>
+  </si>
+  <si>
+    <t>***Test creates the Exhibit Setup "TUXr Exhibit."</t>
+  </si>
+  <si>
+    <t>****Test first searches for the Exhibit Setup to see if it already exists.</t>
+  </si>
+  <si>
+    <t>*****If it already exists, the Exhibit Setup is not created.</t>
+  </si>
+  <si>
+    <t>******If it doesn't exist, the test creates the Exhibit Setup.</t>
+  </si>
+  <si>
+    <t>UX_Grid</t>
+  </si>
+  <si>
+    <t>Check if Exhibit setup exists before creating new setup.</t>
+  </si>
+  <si>
+    <t>Exhibit not found. Create new exhibit setup for testing.</t>
+  </si>
+  <si>
+    <t>TUXr Exhibit1</t>
+  </si>
+  <si>
+    <t>TUXr Exhibit2</t>
+  </si>
+  <si>
+    <t>TUXrEXHIBIT2</t>
   </si>
 </sst>
 </file>
@@ -378,7 +432,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="218">
+  <borders count="228">
     <border>
       <left/>
       <right/>
@@ -603,11 +657,21 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -826,6 +890,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="215" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="216" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="217" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="218" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="219" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="220" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="221" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="222" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="223" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="224" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="225" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="226" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="227" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -835,7 +909,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H72"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5546875" customWidth="true"/>
@@ -902,599 +976,581 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="177"/>
+      <c r="A4" s="221"/>
     </row>
     <row r="5">
-      <c r="A5" s="176" t="s">
+      <c r="A5" s="218"/>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="177"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F7" t="s">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="175"/>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="8">
+      <c r="A8" s="175"/>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F8" t="s">
         <v>28</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="174"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="173" t="s">
+    <row r="9">
+      <c r="A9" s="227"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="226"/>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="225"/>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="224"/>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="223"/>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="222"/>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="174"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="172"/>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="17">
+      <c r="A17" s="172"/>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D17" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E17" t="s">
         <v>33</v>
       </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="171"/>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="171"/>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
         <v>35</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D18" t="s">
         <v>36</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E18" t="s">
         <v>37</v>
       </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="170"/>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="19">
+      <c r="A19" s="170"/>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D19" t="s">
         <v>39</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E19" t="s">
         <v>40</v>
       </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="169"/>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="20">
+      <c r="A20" s="169"/>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
         <v>35</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D20" t="s">
         <v>42</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E20" t="s">
         <v>37</v>
       </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="168"/>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="21">
+      <c r="A21" s="168"/>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
         <v>35</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D21" t="s">
         <v>44</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E21" t="s">
         <v>45</v>
       </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="167"/>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="22">
+      <c r="A22" s="167"/>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
         <v>17</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D22" t="s">
         <v>47</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E22" t="s">
         <v>48</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="166"/>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" t="s">
+    <row r="23">
+      <c r="A23" s="166"/>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" t="s">
         <v>51</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E23" t="s">
         <v>10</v>
       </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
         <v>65</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="217" t="s">
+    <row r="24">
+      <c r="A24" s="217" t="s">
         <v>7</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B24" t="s">
         <v>13</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C24" t="s">
         <v>7</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D24" t="s">
         <v>7</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E24" t="s">
         <v>14</v>
       </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
         <v>53</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="216" t="s">
+    <row r="25">
+      <c r="A25" s="216" t="s">
         <v>7</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B25" t="s">
         <v>13</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C25" t="s">
         <v>7</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D25" t="s">
         <v>7</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E25" t="s">
         <v>54</v>
       </c>
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
         <v>55</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="163" t="s">
+    <row r="26">
+      <c r="A26" s="163" t="s">
         <v>56</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B26" t="s">
         <v>13</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E26" t="s">
         <v>57</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F26" t="s">
         <v>25</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="162"/>
-      <c r="B19" t="s">
+    <row r="27">
+      <c r="A27" s="162"/>
+      <c r="B27" t="s">
         <v>59</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D27" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="187" t="s">
+    <row r="28">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="16"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="187" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B29" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="186"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="185" t="s">
+    <row r="30">
+      <c r="A30" s="186"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="185" t="s">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B31" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="184"/>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
+    <row r="32">
+      <c r="A32" s="184"/>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
         <v>31</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D32" t="s">
         <v>32</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E32" t="s">
         <v>33</v>
       </c>
-      <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="183"/>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="183"/>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
         <v>35</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D33" t="s">
         <v>36</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E33" t="s">
         <v>37</v>
       </c>
-      <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="182"/>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
+    <row r="34">
+      <c r="A34" s="182"/>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
         <v>35</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D34" t="s">
         <v>39</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E34" t="s">
         <v>40</v>
       </c>
-      <c r="F26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="181"/>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
+    <row r="35">
+      <c r="A35" s="181"/>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
         <v>35</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D35" t="s">
         <v>42</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E35" t="s">
         <v>37</v>
       </c>
-      <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="180"/>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
+    <row r="36">
+      <c r="A36" s="180"/>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
         <v>35</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D36" t="s">
         <v>71</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E36" t="s">
         <v>37</v>
       </c>
-      <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="19" t="s">
+    <row r="37">
+      <c r="A37" s="17"/>
+      <c r="B37" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D37" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E37" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F37" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G37" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="H29" s="24"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="188"/>
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="H31" s="32"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="189"/>
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="33"/>
-      <c r="B33" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="F33" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="H33" s="40"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="190"/>
-      <c r="B34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="41"/>
-      <c r="B35" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="E35" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="H35" s="48"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="191"/>
-      <c r="B36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="49"/>
-      <c r="B37" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="E37" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="F37" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="G37" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="H37" s="56"/>
+      <c r="H37" s="24"/>
     </row>
     <row r="38">
-      <c r="A38" s="192"/>
+      <c r="A38" s="188"/>
       <c r="B38" t="s">
         <v>13</v>
       </c>
@@ -1505,33 +1561,35 @@
         <v>15</v>
       </c>
       <c r="G38" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="73"/>
-      <c r="B39" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="75" t="s">
+      <c r="A39" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="76" t="s">
-        <v>79</v>
-      </c>
-      <c r="E39" s="77" t="s">
+      <c r="D39" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="F39" s="78" t="s">
+      <c r="F39" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="H39" s="80"/>
+      <c r="G39" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="H39" s="32"/>
     </row>
     <row r="40">
-      <c r="A40" s="194"/>
+      <c r="A40" s="189"/>
       <c r="B40" t="s">
         <v>13</v>
       </c>
@@ -1542,114 +1600,107 @@
         <v>15</v>
       </c>
       <c r="G40" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="81"/>
-      <c r="B41" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" s="84" t="s">
-        <v>91</v>
-      </c>
-      <c r="E41" s="85" t="s">
-        <v>92</v>
-      </c>
-      <c r="F41" s="86" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" s="87" t="s">
-        <v>93</v>
-      </c>
-      <c r="H41" s="88"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H41" s="40"/>
     </row>
     <row r="42">
-      <c r="A42" s="89"/>
-      <c r="B42" s="90" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="91" t="s">
+      <c r="A42" s="190"/>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="41"/>
+      <c r="B43" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="E42" s="93" t="s">
+      <c r="D43" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="F42" s="94" t="s">
+      <c r="F43" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="G42" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="H42" s="96"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="195"/>
-      <c r="B43" t="s">
+      <c r="G43" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="H43" s="48"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="191"/>
+      <c r="B44" t="s">
         <v>13</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E44" t="s">
         <v>45</v>
       </c>
-      <c r="F43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="97"/>
-      <c r="B44" s="98" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="99" t="s">
+      <c r="F44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="49"/>
+      <c r="B45" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D44" s="100" t="s">
-        <v>96</v>
-      </c>
-      <c r="E44" s="101" t="s">
+      <c r="D45" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="F44" s="102" t="s">
+      <c r="F45" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="G44" s="103" t="s">
-        <v>97</v>
-      </c>
-      <c r="H44" s="104"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="105"/>
-      <c r="B45" s="106" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="107" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45" s="108" t="s">
-        <v>79</v>
-      </c>
-      <c r="E45" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="F45" s="110" t="s">
-        <v>28</v>
-      </c>
-      <c r="G45" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="H45" s="112"/>
+      <c r="G45" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="H45" s="56"/>
     </row>
     <row r="46">
-      <c r="A46" s="196"/>
+      <c r="A46" s="192"/>
       <c r="B46" t="s">
         <v>13</v>
       </c>
@@ -1660,32 +1711,33 @@
         <v>15</v>
       </c>
       <c r="G46" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="198"/>
-      <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="A47" s="73"/>
+      <c r="B47" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="G47" t="s">
-        <v>100</v>
-      </c>
+      <c r="G47" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="H47" s="80"/>
     </row>
     <row r="48">
-      <c r="A48" s="199"/>
+      <c r="A48" s="194"/>
       <c r="B48" t="s">
         <v>13</v>
       </c>
@@ -1696,138 +1748,152 @@
         <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="113"/>
-      <c r="B49" s="114" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="115" t="s">
+      <c r="A49" s="81"/>
+      <c r="B49" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" s="85" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" s="86" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="H49" s="88"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="89"/>
+      <c r="B50" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="D49" s="116" t="s">
+      <c r="D50" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="117" t="s">
+      <c r="E50" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="F49" s="118" t="s">
+      <c r="F50" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="G49" s="119" t="s">
-        <v>99</v>
-      </c>
-      <c r="H49" s="120"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="197"/>
-      <c r="B50" t="s">
+      <c r="G50" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="H50" s="96"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="195"/>
+      <c r="B51" t="s">
         <v>13</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E51" t="s">
         <v>45</v>
       </c>
-      <c r="F50" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="121"/>
-      <c r="B51" s="122" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="123" t="s">
+      <c r="F51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="97"/>
+      <c r="B52" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="D51" s="124" t="s">
-        <v>71</v>
-      </c>
-      <c r="E51" s="125" t="s">
-        <v>37</v>
-      </c>
-      <c r="F51" s="126" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" s="127" t="s">
-        <v>103</v>
-      </c>
-      <c r="H51" s="128"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="129"/>
-      <c r="B52" s="130"/>
-      <c r="C52" s="131"/>
-      <c r="D52" s="132"/>
-      <c r="E52" s="133"/>
-      <c r="F52" s="134"/>
-      <c r="G52" s="135"/>
-      <c r="H52" s="136"/>
+      <c r="D52" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="E52" s="101" t="s">
+        <v>75</v>
+      </c>
+      <c r="F52" s="102" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="103" t="s">
+        <v>97</v>
+      </c>
+      <c r="H52" s="104"/>
     </row>
     <row r="53">
-      <c r="A53" s="210" t="s">
-        <v>21</v>
-      </c>
-      <c r="B53" t="s">
-        <v>111</v>
-      </c>
+      <c r="A53" s="105"/>
+      <c r="B53" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="108" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" s="109" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" s="111" t="s">
+        <v>97</v>
+      </c>
+      <c r="H53" s="112"/>
     </row>
     <row r="54">
-      <c r="A54" s="209"/>
+      <c r="A54" s="196"/>
       <c r="B54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" t="s">
-        <v>31</v>
-      </c>
-      <c r="D54" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
         <v>15</v>
       </c>
       <c r="G54" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="211"/>
+      <c r="A55" s="198"/>
       <c r="B55" t="s">
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D55" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="E55" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="F55" t="s">
         <v>28</v>
       </c>
       <c r="G55" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="208"/>
+      <c r="A56" s="199"/>
       <c r="B56" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" t="s">
-        <v>35</v>
-      </c>
-      <c r="D56" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E56" t="s">
         <v>45</v>
@@ -1836,148 +1902,255 @@
         <v>15</v>
       </c>
       <c r="G56" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="207"/>
-      <c r="B57" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" t="s">
-        <v>66</v>
-      </c>
-      <c r="D57" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" t="s">
-        <v>65</v>
-      </c>
+      <c r="A57" s="113"/>
+      <c r="B57" s="114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="115" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="116" t="s">
+        <v>79</v>
+      </c>
+      <c r="E57" s="117" t="s">
+        <v>75</v>
+      </c>
+      <c r="F57" s="118" t="s">
+        <v>28</v>
+      </c>
+      <c r="G57" s="119" t="s">
+        <v>99</v>
+      </c>
+      <c r="H57" s="120"/>
     </row>
     <row r="58">
-      <c r="A58" s="206"/>
+      <c r="A58" s="197"/>
       <c r="B58" t="s">
         <v>13</v>
       </c>
       <c r="E58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="121"/>
+      <c r="B59" s="122" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="123" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="124" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59" s="125" t="s">
+        <v>37</v>
+      </c>
+      <c r="F59" s="126" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="127" t="s">
+        <v>103</v>
+      </c>
+      <c r="H59" s="128"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="129"/>
+      <c r="B60" s="130"/>
+      <c r="C60" s="131"/>
+      <c r="D60" s="132"/>
+      <c r="E60" s="133"/>
+      <c r="F60" s="134"/>
+      <c r="G60" s="135"/>
+      <c r="H60" s="136"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="210" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="209"/>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" t="s">
+        <v>33</v>
+      </c>
+      <c r="F62" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="211"/>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" t="s">
+        <v>27</v>
+      </c>
+      <c r="F63" t="s">
+        <v>28</v>
+      </c>
+      <c r="G63" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="208"/>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>35</v>
+      </c>
+      <c r="D64" t="s">
+        <v>44</v>
+      </c>
+      <c r="E64" t="s">
+        <v>45</v>
+      </c>
+      <c r="F64" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="207"/>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>127</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="206"/>
+      <c r="B66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" t="s">
         <v>14</v>
       </c>
-      <c r="F58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="F66" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="205"/>
-      <c r="B59" t="s">
+    <row r="67">
+      <c r="A67" s="205"/>
+      <c r="B67" t="s">
         <v>13</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E67" t="s">
         <v>54</v>
       </c>
-      <c r="F59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="F67" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="204"/>
-      <c r="B60" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" t="s">
+    <row r="68">
+      <c r="A68" s="204"/>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
         <v>35</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D68" t="s">
         <v>106</v>
       </c>
-      <c r="E60" t="s">
-        <v>75</v>
-      </c>
-      <c r="F60" t="s">
-        <v>28</v>
-      </c>
-      <c r="G60" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="203"/>
-      <c r="B61" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" t="s">
-        <v>108</v>
-      </c>
-      <c r="F61" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="202"/>
-      <c r="B62" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="E68" t="s">
         <v>110</v>
       </c>
-      <c r="F62" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="F68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="201"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="200" t="s">
+    <row r="69">
+      <c r="A69" s="200" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="137"/>
-      <c r="B65" s="138"/>
-      <c r="C65" s="139"/>
-      <c r="D65" s="140"/>
-      <c r="E65" s="141"/>
-      <c r="F65" s="142"/>
-      <c r="G65" s="143"/>
-      <c r="H65" s="144"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="145"/>
-      <c r="B66" s="146"/>
-      <c r="C66" s="147"/>
-      <c r="D66" s="148"/>
-      <c r="E66" s="149"/>
-      <c r="F66" s="150"/>
-      <c r="G66" s="151"/>
-      <c r="H66" s="152"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="153"/>
-      <c r="B67" s="154"/>
-      <c r="C67" s="155"/>
-      <c r="D67" s="156"/>
-      <c r="E67" s="157"/>
-      <c r="F67" s="158"/>
-      <c r="G67" s="159"/>
-      <c r="H67" s="160"/>
+    <row r="70">
+      <c r="A70" s="137"/>
+      <c r="B70" s="138"/>
+      <c r="C70" s="139"/>
+      <c r="D70" s="140"/>
+      <c r="E70" s="141"/>
+      <c r="F70" s="142"/>
+      <c r="G70" s="143"/>
+      <c r="H70" s="144"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="145"/>
+      <c r="B71" s="146"/>
+      <c r="C71" s="147"/>
+      <c r="D71" s="148"/>
+      <c r="E71" s="149"/>
+      <c r="F71" s="150"/>
+      <c r="G71" s="151"/>
+      <c r="H71" s="152"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="153"/>
+      <c r="B72" s="154"/>
+      <c r="C72" s="155"/>
+      <c r="D72" s="156"/>
+      <c r="E72" s="157"/>
+      <c r="F72" s="158"/>
+      <c r="G72" s="159"/>
+      <c r="H72" s="160"/>
     </row>
   </sheetData>
 </worksheet>
